--- a/数据整理/stocks/A股/上证主板/600197-伊力特.xlsx
+++ b/数据整理/stocks/A股/上证主板/600197-伊力特.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,6 +49,12 @@
     <t>富国中证价值ETF</t>
   </si>
   <si>
+    <t>4.93</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
     <t>89.57</t>
   </si>
   <si>
@@ -53,6 +65,12 @@
   </si>
   <si>
     <t>1.23</t>
+  </si>
+  <si>
+    <t>0.2366</t>
+  </si>
+  <si>
+    <t>0.0235</t>
   </si>
 </sst>
 </file>
@@ -410,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,44 +450,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600197-伊力特.xlsx
+++ b/数据整理/stocks/A股/上证主板/600197-伊力特.xlsx
@@ -1,108 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>290004</t>
-  </si>
-  <si>
-    <t>512040</t>
-  </si>
-  <si>
-    <t>泰信优质生活混合</t>
-  </si>
-  <si>
-    <t>富国中证价值ETF</t>
-  </si>
-  <si>
-    <t>4.93</t>
-  </si>
-  <si>
-    <t>1.91</t>
-  </si>
-  <si>
-    <t>89.57</t>
-  </si>
-  <si>
-    <t>98.94</t>
-  </si>
-  <si>
-    <t>4.80</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>0.2366</t>
-  </si>
-  <si>
-    <t>0.0235</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,89 +446,569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600197-伊力特.xlsx
+++ b/数据整理/stocks/A股/上证主板/600197-伊力特.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600197-伊力特.xlsx
+++ b/数据整理/stocks/A股/上证主板/600197-伊力特.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.54</v>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1067,13 +1110,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600197-伊力特.xlsx
+++ b/数据整理/stocks/A股/上证主板/600197-伊力特.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4914</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.66</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.54</v>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4211</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1368,13 +1433,857 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004987</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德新享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600197-伊力特.xlsx
+++ b/数据整理/stocks/A股/上证主板/600197-伊力特.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2198,7 +2199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2209,17 +2210,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2229,14 +2250,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.19</v>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4658</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2245,14 +2288,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.66</v>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2261,14 +2326,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.54</v>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2277,13 +2364,607 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600197-伊力特.xlsx
+++ b/数据整理/stocks/A股/上证主板/600197-伊力特.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>1.17</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>2.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>0.66</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -566,6 +583,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银新得利混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1229,7 +1796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2121,7 +2688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2405,7 +2972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2841,7 +3408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600197-伊力特.xlsx
+++ b/数据整理/stocks/A股/上证主板/600197-伊力特.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0.73</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>1.17</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>2.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>0.66</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -583,6 +600,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9024</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3635</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015346</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>35.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012854</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大中证ESG120策略指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银新得利混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>35.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012855</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>英大中证ESG120策略指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1132,7 +2003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1796,7 +2667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2688,7 +3559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2972,7 +3843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3408,7 +4279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
